--- a/Registros prueba (3).xlsx
+++ b/Registros prueba (3).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulj\Desktop\gestor50mas1\gestor50mas1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Documents\TT Final\gestor50mas1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7819CC9-A911-47B8-9163-05724E6C9F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FB5B15-E262-4C1B-895C-AF160B7E0846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{789BCE59-BEA8-4CBA-9A8A-E6E6562D50CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{789BCE59-BEA8-4CBA-9A8A-E6E6562D50CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Alumnos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="488">
   <si>
     <t>Juan</t>
   </si>
@@ -1499,6 +1499,9 @@
   </si>
   <si>
     <t>empresa</t>
+  </si>
+  <si>
+    <t>carolina.castillo@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1579,9 +1582,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1598,7 +1604,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1896,43 +1902,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4414ACB3-F59F-4F75-BFD6-EF3731096F7A}">
   <dimension ref="A1:AI50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.109375" style="1"/>
+    <col min="27" max="28" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>154</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2096,7 +2102,7 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="3"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2180,7 +2186,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2264,7 +2270,7 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="3"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -2348,7 +2354,7 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="3"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -2432,7 +2438,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -2516,7 +2522,7 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="3"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
@@ -2600,7 +2606,7 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="3"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>75</v>
       </c>
@@ -2684,7 +2690,7 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="3"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>80</v>
       </c>
@@ -2768,7 +2774,7 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="3"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -2850,7 +2856,7 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="3"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>94</v>
       </c>
@@ -2934,7 +2940,7 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="3"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -3017,7 +3023,7 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="2"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>106</v>
       </c>
@@ -3101,7 +3107,7 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="3"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
@@ -3185,7 +3191,7 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="3"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>118</v>
       </c>
@@ -3267,7 +3273,7 @@
       <c r="AF16" s="2"/>
       <c r="AG16" s="3"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>125</v>
       </c>
@@ -3351,7 +3357,7 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="3"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -3433,7 +3439,7 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -3515,7 +3521,7 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>187</v>
       </c>
@@ -3597,7 +3603,7 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -3679,7 +3685,7 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>198</v>
       </c>
@@ -3761,7 +3767,7 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>204</v>
       </c>
@@ -3843,7 +3849,7 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,7 +3931,7 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>214</v>
       </c>
@@ -4007,7 +4013,7 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>118</v>
       </c>
@@ -4089,7 +4095,7 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>224</v>
       </c>
@@ -4171,7 +4177,7 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>231</v>
       </c>
@@ -4253,7 +4259,7 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>238</v>
       </c>
@@ -4335,7 +4341,7 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>247</v>
       </c>
@@ -4417,7 +4423,7 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>254</v>
       </c>
@@ -4499,7 +4505,7 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>260</v>
       </c>
@@ -4581,7 +4587,7 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>204</v>
       </c>
@@ -4663,7 +4669,7 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>269</v>
       </c>
@@ -4745,7 +4751,7 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>274</v>
       </c>
@@ -4827,7 +4833,7 @@
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>279</v>
       </c>
@@ -4909,7 +4915,7 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>284</v>
       </c>
@@ -4952,8 +4958,8 @@
       <c r="N37" s="1">
         <v>5551098765</v>
       </c>
-      <c r="O37" s="1" t="s">
-        <v>288</v>
+      <c r="O37" s="9" t="s">
+        <v>487</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>84</v>
@@ -4991,7 +4997,7 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
@@ -5073,7 +5079,7 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>214</v>
       </c>
@@ -5155,7 +5161,7 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>297</v>
       </c>
@@ -5237,7 +5243,7 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>302</v>
       </c>
@@ -5319,7 +5325,7 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>118</v>
       </c>
@@ -5401,7 +5407,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>311</v>
       </c>
@@ -5483,7 +5489,7 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>316</v>
       </c>
@@ -5565,7 +5571,7 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
@@ -5647,7 +5653,7 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>297</v>
       </c>
@@ -5729,7 +5735,7 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>284</v>
       </c>
@@ -5811,7 +5817,7 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>334</v>
       </c>
@@ -5893,7 +5899,7 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>346</v>
       </c>
@@ -5973,7 +5979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>349</v>
       </c>
@@ -6058,9 +6064,10 @@
   <hyperlinks>
     <hyperlink ref="O50" r:id="rId1" xr:uid="{3B707905-48B6-4764-B7AD-777EAC5D987C}"/>
     <hyperlink ref="O49" r:id="rId2" xr:uid="{7CFCF775-B115-4A37-A7CF-9318737EB6A1}"/>
+    <hyperlink ref="O37" r:id="rId3" xr:uid="{8665F054-12AD-4F81-BB58-693FC76B29C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -6072,14 +6079,14 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="52.44140625" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>447</v>
       </c>
@@ -6093,7 +6100,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>352</v>
       </c>
@@ -6107,7 +6114,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>353</v>
       </c>
@@ -6121,7 +6128,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>354</v>
       </c>
@@ -6135,7 +6142,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>355</v>
       </c>
@@ -6149,7 +6156,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>356</v>
       </c>
@@ -6163,7 +6170,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>357</v>
       </c>
@@ -6177,7 +6184,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>358</v>
       </c>
@@ -6191,7 +6198,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>359</v>
       </c>
@@ -6205,7 +6212,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>360</v>
       </c>
@@ -6219,7 +6226,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>361</v>
       </c>
@@ -6233,7 +6240,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>362</v>
       </c>
@@ -6247,7 +6254,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>363</v>
       </c>
@@ -6261,7 +6268,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>364</v>
       </c>
@@ -6275,7 +6282,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>365</v>
       </c>
@@ -6289,7 +6296,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>366</v>
       </c>
@@ -6303,7 +6310,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>367</v>
       </c>
@@ -6317,7 +6324,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>368</v>
       </c>
@@ -6331,7 +6338,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>369</v>
       </c>
@@ -6345,7 +6352,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>370</v>
       </c>
@@ -6359,7 +6366,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>371</v>
       </c>
@@ -6373,7 +6380,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>372</v>
       </c>
@@ -6387,7 +6394,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>373</v>
       </c>
@@ -6401,7 +6408,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>374</v>
       </c>
@@ -6415,7 +6422,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>375</v>
       </c>
@@ -6429,7 +6436,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>376</v>
       </c>
@@ -6443,7 +6450,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>377</v>
       </c>
@@ -6457,7 +6464,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>378</v>
       </c>
@@ -6471,7 +6478,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>379</v>
       </c>
@@ -6485,7 +6492,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>380</v>
       </c>
@@ -6499,7 +6506,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>381</v>
       </c>
@@ -6528,20 +6535,20 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>154</v>
       </c>
@@ -6567,7 +6574,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>450</v>
       </c>
@@ -6593,7 +6600,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>457</v>
       </c>
@@ -6619,7 +6626,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -6645,7 +6652,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>461</v>
       </c>
@@ -6671,7 +6678,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>469</v>
       </c>
@@ -6697,7 +6704,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>453</v>
       </c>
@@ -6723,7 +6730,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>474</v>
       </c>

--- a/Registros prueba (3).xlsx
+++ b/Registros prueba (3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Documents\TT Final\gestor50mas1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FB5B15-E262-4C1B-895C-AF160B7E0846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0896D80-1A4D-47D7-9CA2-5E9BBAB44937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{789BCE59-BEA8-4CBA-9A8A-E6E6562D50CC}"/>
   </bookViews>
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4414ACB3-F59F-4F75-BFD6-EF3731096F7A}">
   <dimension ref="A1:AI50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Registros prueba (3).xlsx
+++ b/Registros prueba (3).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Documents\TT Final\gestor50mas1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulj\Desktop\gestor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0896D80-1A4D-47D7-9CA2-5E9BBAB44937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B530317-BB12-4850-BC44-C3D33D61590B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{789BCE59-BEA8-4CBA-9A8A-E6E6562D50CC}"/>
+    <workbookView xWindow="0" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{789BCE59-BEA8-4CBA-9A8A-E6E6562D50CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Alumnos" sheetId="1" r:id="rId1"/>
@@ -1587,7 +1587,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1604,7 +1604,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1902,11 +1902,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4414ACB3-F59F-4F75-BFD6-EF3731096F7A}">
   <dimension ref="A1:AI50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -6079,7 +6079,7 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="52.42578125" customWidth="1"/>
@@ -6531,11 +6531,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4C7413-D3D5-422B-B989-9319D584FC86}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>

--- a/Registros prueba (3).xlsx
+++ b/Registros prueba (3).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saulj\Desktop\gestor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B530317-BB12-4850-BC44-C3D33D61590B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235BABD3-83A8-4888-8F39-D9774261F1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{789BCE59-BEA8-4CBA-9A8A-E6E6562D50CC}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{789BCE59-BEA8-4CBA-9A8A-E6E6562D50CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Alumnos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="451">
   <si>
     <t>Juan</t>
   </si>
@@ -1096,96 +1096,6 @@
     <t>Soto</t>
   </si>
   <si>
-    <t>T001</t>
-  </si>
-  <si>
-    <t>T002</t>
-  </si>
-  <si>
-    <t>T003</t>
-  </si>
-  <si>
-    <t>T004</t>
-  </si>
-  <si>
-    <t>T005</t>
-  </si>
-  <si>
-    <t>T006</t>
-  </si>
-  <si>
-    <t>T007</t>
-  </si>
-  <si>
-    <t>T008</t>
-  </si>
-  <si>
-    <t>T009</t>
-  </si>
-  <si>
-    <t>T010</t>
-  </si>
-  <si>
-    <t>T011</t>
-  </si>
-  <si>
-    <t>T012</t>
-  </si>
-  <si>
-    <t>T013</t>
-  </si>
-  <si>
-    <t>T014</t>
-  </si>
-  <si>
-    <t>T015</t>
-  </si>
-  <si>
-    <t>T016</t>
-  </si>
-  <si>
-    <t>T017</t>
-  </si>
-  <si>
-    <t>T018</t>
-  </si>
-  <si>
-    <t>T019</t>
-  </si>
-  <si>
-    <t>T020</t>
-  </si>
-  <si>
-    <t>T021</t>
-  </si>
-  <si>
-    <t>T022</t>
-  </si>
-  <si>
-    <t>T023</t>
-  </si>
-  <si>
-    <t>T024</t>
-  </si>
-  <si>
-    <t>T025</t>
-  </si>
-  <si>
-    <t>T026</t>
-  </si>
-  <si>
-    <t>T027</t>
-  </si>
-  <si>
-    <t>T028</t>
-  </si>
-  <si>
-    <t>T029</t>
-  </si>
-  <si>
-    <t>T030</t>
-  </si>
-  <si>
     <t>descripcion</t>
   </si>
   <si>
@@ -1381,15 +1291,9 @@
     <t>Yesua_perez@gmail.com</t>
   </si>
   <si>
-    <t>codigo_taller</t>
-  </si>
-  <si>
     <t>tipoUsuario</t>
   </si>
   <si>
-    <t>inicioLaboral</t>
-  </si>
-  <si>
     <t>Héctor</t>
   </si>
   <si>
@@ -1408,9 +1312,6 @@
     <t>hector.manzanilla@gmail.com</t>
   </si>
   <si>
-    <t>14-06-20203</t>
-  </si>
-  <si>
     <t>Benjamin</t>
   </si>
   <si>
@@ -1460,18 +1361,6 @@
   </si>
   <si>
     <t>israel.ramirez</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Admin.admin@admin.com</t>
-  </si>
-  <si>
-    <t>Adtest01_</t>
-  </si>
-  <si>
-    <t>Administrador</t>
   </si>
   <si>
     <t>prueba</t>
@@ -1560,7 +1449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1581,7 +1470,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1906,39 +1794,39 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="1"/>
+    <col min="27" max="28" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>154</v>
       </c>
@@ -2006,7 +1894,7 @@
         <v>174</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>486</v>
+        <v>449</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>131</v>
@@ -2018,7 +1906,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +1990,7 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="3"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2186,7 +2074,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2270,7 +2158,7 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="3"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -2354,7 +2242,7 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="3"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -2438,7 +2326,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -2522,7 +2410,7 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="3"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
@@ -2606,7 +2494,7 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="3"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>75</v>
       </c>
@@ -2653,7 +2541,7 @@
         <v>78</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>482</v>
+        <v>445</v>
       </c>
       <c r="Q9" s="1">
         <v>37</v>
@@ -2690,7 +2578,7 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="3"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>80</v>
       </c>
@@ -2774,7 +2662,7 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="3"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -2856,7 +2744,7 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="3"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>94</v>
       </c>
@@ -2940,7 +2828,7 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="3"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -3023,7 +2911,7 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="2"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>106</v>
       </c>
@@ -3107,7 +2995,7 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="3"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
@@ -3191,7 +3079,7 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="3"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>118</v>
       </c>
@@ -3273,7 +3161,7 @@
       <c r="AF16" s="2"/>
       <c r="AG16" s="3"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>125</v>
       </c>
@@ -3357,7 +3245,7 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="3"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -3439,7 +3327,7 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -3521,7 +3409,7 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>187</v>
       </c>
@@ -3603,7 +3491,7 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -3685,7 +3573,7 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>198</v>
       </c>
@@ -3767,7 +3655,7 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>204</v>
       </c>
@@ -3849,7 +3737,7 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -3931,7 +3819,7 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>214</v>
       </c>
@@ -4013,7 +3901,7 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>118</v>
       </c>
@@ -4095,7 +3983,7 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>224</v>
       </c>
@@ -4177,7 +4065,7 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>231</v>
       </c>
@@ -4259,7 +4147,7 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>238</v>
       </c>
@@ -4341,7 +4229,7 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>247</v>
       </c>
@@ -4423,7 +4311,7 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>254</v>
       </c>
@@ -4505,7 +4393,7 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>260</v>
       </c>
@@ -4587,7 +4475,7 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>204</v>
       </c>
@@ -4669,7 +4557,7 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>269</v>
       </c>
@@ -4751,7 +4639,7 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>274</v>
       </c>
@@ -4833,7 +4721,7 @@
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>279</v>
       </c>
@@ -4915,7 +4803,7 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>284</v>
       </c>
@@ -4958,8 +4846,8 @@
       <c r="N37" s="1">
         <v>5551098765</v>
       </c>
-      <c r="O37" s="9" t="s">
-        <v>487</v>
+      <c r="O37" s="8" t="s">
+        <v>450</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>84</v>
@@ -4997,7 +4885,7 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
@@ -5079,7 +4967,7 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>214</v>
       </c>
@@ -5161,7 +5049,7 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>297</v>
       </c>
@@ -5243,7 +5131,7 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>302</v>
       </c>
@@ -5325,7 +5213,7 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>118</v>
       </c>
@@ -5407,7 +5295,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>311</v>
       </c>
@@ -5489,7 +5377,7 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>316</v>
       </c>
@@ -5571,7 +5459,7 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
@@ -5653,7 +5541,7 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>297</v>
       </c>
@@ -5735,7 +5623,7 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>284</v>
       </c>
@@ -5817,7 +5705,7 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>334</v>
       </c>
@@ -5864,7 +5752,7 @@
         <v>341</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>483</v>
+        <v>446</v>
       </c>
       <c r="Q48" s="1">
         <v>31</v>
@@ -5899,7 +5787,7 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>346</v>
       </c>
@@ -5943,10 +5831,10 @@
         <v>5552109876</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
       <c r="Q49" s="1">
         <v>32</v>
@@ -5979,7 +5867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>349</v>
       </c>
@@ -6023,10 +5911,10 @@
         <v>5552109876</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
       <c r="Q50" s="1">
         <v>33</v>
@@ -6073,451 +5961,358 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C645A673-7C32-4BC3-B583-42160FBB46FF}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>447</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>352</v>
       </c>
       <c r="C1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>352</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>354</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>414</v>
       </c>
-      <c r="D2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>353</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>354</v>
+      <c r="C3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="D4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>355</v>
+      <c r="C4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>356</v>
+      <c r="C5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="D6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>357</v>
+      <c r="C6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>358</v>
+      <c r="C7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="D8" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>359</v>
+      <c r="C8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="D9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>360</v>
+      <c r="C9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>362</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D10" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>361</v>
+      <c r="C10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>363</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="D11" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>362</v>
+      <c r="C11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>364</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="D12" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>363</v>
+      <c r="C12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>365</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D13" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>364</v>
+      <c r="C13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="D14" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>365</v>
+      <c r="C14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D15" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>366</v>
+      <c r="C15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="D16" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>367</v>
+      <c r="C16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>368</v>
+      <c r="C17" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>370</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D18" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>369</v>
+      <c r="C18" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="D19" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>370</v>
+      <c r="C19" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="D20" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>371</v>
+      <c r="C20" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="D21" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>372</v>
+      <c r="C21" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>374</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="D22" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>373</v>
+      <c r="C22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="D23" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>374</v>
+      <c r="C23" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D24" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>375</v>
+      <c r="C24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>377</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="D25" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>376</v>
+      <c r="C25" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="D26" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>377</v>
+      <c r="C26" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D27" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>378</v>
+      <c r="C27" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>380</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="D28" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>379</v>
+      <c r="C28" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>381</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D29" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>380</v>
+      <c r="C29" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>382</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="D30" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>381</v>
+      <c r="C30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="D31" t="s">
-        <v>444</v>
+      <c r="C31" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -6529,26 +6324,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4C7413-D3D5-422B-B989-9319D584FC86}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>154</v>
       </c>
@@ -6565,200 +6359,160 @@
         <v>168</v>
       </c>
       <c r="F1" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="G1" t="s">
         <v>133</v>
       </c>
-      <c r="H1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="C2" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="D2" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="E2" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="F2" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="B3" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="D3" t="s">
-        <v>459</v>
+      <c r="D3" s="7" t="s">
+        <v>426</v>
       </c>
       <c r="E3" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="F3" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="D4" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="E4" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="F4" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s">
         <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="D5" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="E5" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="F5" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="B6" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="C6" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="D6" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="E6" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="F6" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="B7" t="s">
-        <v>478</v>
+        <v>441</v>
       </c>
       <c r="C7" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="D7" t="s">
-        <v>480</v>
+        <v>443</v>
       </c>
       <c r="E7" t="s">
-        <v>481</v>
+        <v>444</v>
       </c>
       <c r="F7" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>474</v>
-      </c>
-      <c r="B8" t="s">
-        <v>474</v>
-      </c>
-      <c r="C8" t="s">
-        <v>474</v>
-      </c>
-      <c r="D8" t="s">
-        <v>475</v>
-      </c>
-      <c r="E8" t="s">
-        <v>476</v>
-      </c>
-      <c r="F8" t="s">
-        <v>477</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>456</v>
-      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="7"/>
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{0A3B66B3-3C70-432D-AC2A-72B9F0D291ED}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>